--- a/biology/Zoologie/Coris_batuensis/Coris_batuensis.xlsx
+++ b/biology/Zoologie/Coris_batuensis/Coris_batuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coris batuensis · Coris de Batu
-Coris batuensis, communément nommé Coris de Batu[2], est une espèce de poisson marin de la famille des Labridae.
-Le Coris de Batu est présent dans les eaux tropicales de la région Indo-Ouest Pacifique[3].
-Sa taille maximale est de 17 cm[4], il fréquente les eaux claires et peu profondes des lagons ainsi que les pentes externes des récifs et ce pour une profondeur moyenne de 15 m[4].
+Coris batuensis, communément nommé Coris de Batu, est une espèce de poisson marin de la famille des Labridae.
+Le Coris de Batu est présent dans les eaux tropicales de la région Indo-Ouest Pacifique.
+Sa taille maximale est de 17 cm, il fréquente les eaux claires et peu profondes des lagons ainsi que les pentes externes des récifs et ce pour une profondeur moyenne de 15 m.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coris coronata De Vis, 1885
